--- a/biology/Médecine/Institut_national_d'hygiène_du_Maroc/Institut_national_d'hygiène_du_Maroc.xlsx
+++ b/biology/Médecine/Institut_national_d'hygiène_du_Maroc/Institut_national_d'hygiène_du_Maroc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_national_d%27hygi%C3%A8ne_du_Maroc</t>
+          <t>Institut_national_d'hygiène_du_Maroc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut national d'hygiène du Maroc (INH) a été inauguré le 30 décembre 1930 à Rabat par le professeur Léon Bernard, président du Conseil supérieur d'hygiène de France, sous la présidence de Lucien Saint, résident général de la République française au Maroc dans le but de prendre en charge les problèmes d'hygiène et d'épidémiologie des maladies transmissibles du Maroc et de diffuser les notions élémentaires de l'hygiène et de la prophylaxie pour protéger la santé de la population.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_national_d%27hygi%C3%A8ne_du_Maroc</t>
+          <t>Institut_national_d'hygiène_du_Maroc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’institut national d’hygiène du Maroc est sous la tutelle du ministère de la Santé et constitue l’organe de référence en matière de biologie médicale et environnementale.
 Cette instance étatique œuvre depuis 1930 à garantir une prise en charge efficace des problèmes d'hygiène et d'épidémiologie au Maroc.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_national_d%27hygi%C3%A8ne_du_Maroc</t>
+          <t>Institut_national_d'hygiène_du_Maroc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’appui et le soutien scientifique et technique aux programmes sanitaires du Ministère de la Santé :
 Programme des maladies épidémiques (méningite, choléra, salmonellose, ...)
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_national_d%27hygi%C3%A8ne_du_Maroc</t>
+          <t>Institut_national_d'hygiène_du_Maroc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Domaines d’expertise</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Expertise médico-légale et environnementale.
 Hygiène alimentaire et toxicologie de l’environnement.
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_national_d%27hygi%C3%A8ne_du_Maroc</t>
+          <t>Institut_national_d'hygiène_du_Maroc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Départements et Laboratoires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Laboratoire d'anatomo-pathologie
 Département de biochimie-hématologie
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Institut_national_d%27hygi%C3%A8ne_du_Maroc</t>
+          <t>Institut_national_d'hygiène_du_Maroc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +685,9 @@
           <t>Services d'appui logistique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Administration
 Service de communication
@@ -685,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Institut_national_d%27hygi%C3%A8ne_du_Maroc</t>
+          <t>Institut_national_d'hygiène_du_Maroc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,7 +725,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site internet officiel
  Portail du Maroc   Portail de la médecine                    </t>
